--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jph04\Documents\GitHub\6team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBC59B-E4F1-4A87-9F0D-33511FA62DE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC302EFE-B416-41C4-82ED-48817D020D1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="윤다은" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>할일</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>신고기능, 고객간 평가부분 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB구조 설계 및 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 연결 이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB연결 및 더미 데이터 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,17 +649,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.765625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.07421875" customWidth="1"/>
+    <col min="4" max="4" width="14.3046875" customWidth="1"/>
+    <col min="5" max="5" width="26.3046875" customWidth="1"/>
+    <col min="6" max="6" width="17.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -687,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="41.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -705,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -715,7 +727,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -725,7 +737,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -733,7 +745,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -741,7 +753,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -749,7 +761,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -757,7 +769,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -765,7 +777,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -773,7 +785,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -781,7 +793,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -789,7 +801,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -797,7 +809,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -819,13 +831,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -845,73 +857,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
-        <v>43594</v>
+        <v>43609</v>
       </c>
       <c r="D2" s="2">
-        <v>43597</v>
+        <v>43614</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>43616</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -919,7 +919,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -927,7 +927,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -935,7 +935,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -943,7 +943,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -951,7 +951,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -959,7 +959,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -967,7 +967,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -975,7 +975,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1000,9 +1000,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="87.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1088,7 +1088,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1096,7 +1096,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1104,7 +1104,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1112,7 +1112,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1120,7 +1120,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1128,7 +1128,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1136,7 +1136,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1144,7 +1144,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1152,7 +1152,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1173,13 +1173,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="87.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1263,7 +1263,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1271,7 +1271,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1279,7 +1279,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1287,7 +1287,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1295,7 +1295,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1303,7 +1303,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1311,7 +1311,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1319,7 +1319,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1327,7 +1327,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1338,8 +1338,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jph04\Documents\GitHub\6team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC302EFE-B416-41C4-82ED-48817D020D1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA95243-F091-494A-BC99-7026C77E8845}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="윤다은" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>할일</t>
   </si>
@@ -118,6 +112,18 @@
   </si>
   <si>
     <t>DB연결 및 더미 데이터 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 기반 GUI 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 및 서버와 연결 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB연결 및 서버와 연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,13 +170,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,20 +655,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.765625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.07421875" customWidth="1"/>
-    <col min="4" max="4" width="14.3046875" customWidth="1"/>
-    <col min="5" max="5" width="26.3046875" customWidth="1"/>
-    <col min="6" max="6" width="17.765625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -717,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -727,7 +736,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -737,7 +746,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -745,7 +754,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -753,7 +762,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -761,7 +770,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -769,7 +778,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -777,7 +786,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -785,7 +794,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -793,7 +802,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -801,7 +810,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -809,7 +818,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -831,13 +840,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="99" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -875,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -887,7 +896,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -895,7 +904,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -903,7 +912,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -911,7 +920,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -919,7 +928,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -927,7 +936,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -935,7 +944,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -943,7 +952,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -951,7 +960,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -959,7 +968,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -967,7 +976,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -975,7 +984,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1000,9 +1009,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1077,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1089,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1088,7 +1097,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1096,7 +1105,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1104,7 +1113,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1112,7 +1121,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1120,7 +1129,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1128,7 +1137,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1136,7 +1145,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1144,7 +1153,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1152,7 +1161,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1173,13 +1182,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,63 +1212,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" s="2">
-        <v>43594</v>
+        <v>43607</v>
       </c>
       <c r="D2" s="2">
-        <v>43597</v>
+        <v>43614</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+        <v>43616</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>43616</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>43616</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1263,7 +1276,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1271,7 +1284,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1279,7 +1292,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1287,7 +1300,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1295,7 +1308,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1303,7 +1316,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1311,7 +1324,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1319,7 +1332,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1327,7 +1340,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
